--- a/mathTransformed/HMPSTT_(2017-11-14)_42_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-11-14)_42_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -479,6 +484,11 @@
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>Govt High School Mugalolli</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -507,6 +517,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Govt Urdu High School Jamkhandi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -534,6 +549,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>AID: Kannada High School Anagawadi,Bilgi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -561,6 +581,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Govt Girls High School</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -588,6 +613,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Govt Urdu High School HanagandiJamkhandi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -615,6 +645,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Adarsh Vidyalaya</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>RMSA Bagalkot</t>
         </is>
       </c>
@@ -642,6 +677,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Govt High SchoolKunchanurJamakandi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -669,6 +709,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt High School Muttur(RSMA)Jamakhandi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -696,6 +741,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>G H S KulaliMudhol</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -723,6 +773,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G H S Simikeri</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -750,6 +805,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>Govt High School YatnattiBadaradinniBilagi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -780,6 +840,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>Govt Urdu High School Bilagi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -804,6 +869,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Shri Basaveshwar High School Hiregulabal</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -831,6 +901,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>RBG High School LokapurMudhol</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Bagalkote</t>
         </is>
       </c>
@@ -858,6 +933,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Govt High School AdihudiJamakhandi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -885,6 +965,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt High School ShirolMudhol</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -912,6 +997,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>Govt High School Nagur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>hunagund</t>
         </is>
       </c>
@@ -927,7 +1017,8 @@
           <t>Bagalkot.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -956,6 +1047,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>Govt. Girls High School GuledgudBadami</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -983,6 +1079,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Govt High School JanamattiBilagi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1010,6 +1111,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S KudalasangamHunagund</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1037,6 +1143,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>Govt. H P S ADS Tota ShirolMudhol</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1064,6 +1175,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt High SchoolBalakundiHungund</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1091,6 +1207,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>Govt High School TeggiBilagi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1118,6 +1239,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Govt High School MannikeriBilagi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1145,6 +1271,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>Govt Urdu High School MahalingpurMudhol</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1172,6 +1303,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G H S HaligeriBadami</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1199,6 +1335,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Shri R T D G P U College NeerabudihalBadami</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1226,6 +1367,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>Adarsha Vidyalaya (RMSA) Mudhol</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1253,6 +1399,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt High School ChikkadapurHungund</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1280,6 +1431,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>GHS YallattiJamkhandi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1307,6 +1463,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Govt High School JammanakattiBadami</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1334,6 +1495,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>KLESSCP High SchoolMahaligpurMudhol</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1361,6 +1527,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G H S Kadampur</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1388,6 +1559,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Govt High School MuradiHunagund</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1415,6 +1591,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>GHS Alagur (RC)jamakhandi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1442,6 +1623,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>G H S MadabhaviMudhol</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1469,6 +1655,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Govt High SchoolKulahalliJamakhandi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1496,6 +1687,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>Govt High School HiresinganaguttiHunagund</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1523,6 +1719,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. Adarsha Vidyalaya Jamkhandi</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1550,6 +1751,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>AIDSree Ramalingeshwara High School KundaragiBilagi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1577,6 +1783,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>Govt High School Kataraki(RSMA)Bilagi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1603,6 +1814,11 @@
         </is>
       </c>
       <c r="F45" t="inlineStr">
+        <is>
+          <t>Govt Girls High School Bilagi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>

--- a/mathTransformed/HMPSTT_(2017-11-14)_42_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-11-14)_42_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bagalkote</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,6 @@
           <t>Bagalkot.</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>Bagalkot</t>

--- a/mathTransformed/HMPSTT_(2017-11-14)_42_4.xlsx
+++ b/mathTransformed/HMPSTT_(2017-11-14)_42_4.xlsx
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>hunagund</t>
+          <t>Bagalkot</t>
         </is>
       </c>
     </row>
